--- a/data/agent-validation-experiments.xlsx
+++ b/data/agent-validation-experiments.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/runck/Dropbox/work/2018/2018-geoinformatica-article/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE64B13-6B59-9B4B-91A9-2BE50F3D4391}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDD03EB-5BE8-DC42-9C2E-73B0B445327D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="460" windowWidth="16020" windowHeight="17040" xr2:uid="{1853E08A-D1EF-CF42-B461-A29C0A42E0E5}"/>
+    <workbookView xWindow="3880" yWindow="460" windowWidth="24540" windowHeight="17040" xr2:uid="{1853E08A-D1EF-CF42-B461-A29C0A42E0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,22 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
-  <si>
-    <t>prompt</t>
-  </si>
-  <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>The chemical will get into the water</t>
   </si>
@@ -102,15 +88,9 @@
     <t>Linda is 31 years old, single, outspoken and very bright. She majored in philosophy. As a student, she was deeply concerned with issues of discrimination and social justice, and also participated in antinuclear demonstrations. Which of the following is most probable?</t>
   </si>
   <si>
-    <t>agent_evaluations</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bill is 34 years old. He is intelligent, but unimaginative, compulsive, and generally lifeless. In school, he was strong in mathematics but weak in social studies and humanities. </t>
   </si>
   <si>
-    <t>Bill plays jazz for a hobby.</t>
-  </si>
-  <si>
     <t>You are considering planting a cover crop after corn. Which of the following is most likely?</t>
   </si>
   <si>
@@ -205,6 +185,63 @@
   </si>
   <si>
     <t>A person eats beef, drinks soda, wears Levis, drives a truck, and shops at a grocery store.</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Agent Evaluation</t>
+  </si>
+  <si>
+    <t>Question Number</t>
+  </si>
+  <si>
+    <t>1) Linda is a bank teller. 2) Linda is a bank teller and active in the feminist movement. 3) Linda is a feminist.</t>
+  </si>
+  <si>
+    <t>1) The chemical will get into the water. 2) The chemical will kill the weeds and get into the water. 3) The chemical will kill the weeds</t>
+  </si>
+  <si>
+    <t>1) The fertilizer will get into the water. 2) The fertilizer will increase crop yields and get into the water. 3) The fertilizer will increase crop yields.</t>
+  </si>
+  <si>
+    <t>1) The cover crop will improve soil health. 2) The cover crop will reduce corn yield and improve soil health. 3) The cover crop will reduce corn yield.</t>
+  </si>
+  <si>
+    <t>1) The manure will improve crop yields. 2) The manure will improve soil fertility and crop yields. 3) The manure will improve soil fertility.</t>
+  </si>
+  <si>
+    <t>1) It will kill the pests. 2) It will kill the pests and make people sick. 3) It will make people sick.</t>
+  </si>
+  <si>
+    <t>1) The farmer values environmental sustainability. 2) The farmer values environmental sustainability and making as much money as possible. 3) The farmer values money.</t>
+  </si>
+  <si>
+    <t>1) The farm is organic. 2) The farm is conventional. 3) The farm is urban.</t>
+  </si>
+  <si>
+    <t>1) The person is an environmentalist. 2) The person is an environmentalist and values convenience. 3) The person values convenience.</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>1) Bill plays jazz for a hobby. 2) Bill is an accountant who plays jazz for a hobby. 3) Bill is an accountant.</t>
+  </si>
+  <si>
+    <t>Bill is an accountant.</t>
   </si>
 </sst>
 </file>
@@ -247,17 +284,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,419 +611,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2445DF-DF3C-CD4F-9A47-6BB54B5C0D69}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -996,4 +1029,291 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA95D52-243F-454F-830E-33E4C25EF985}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="5" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>